--- a/config/data/商品价格表.xlsx
+++ b/config/data/商品价格表.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>comment</t>
   </si>
@@ -365,6 +365,14 @@
   </si>
   <si>
     <t>消耗30晶石增加5次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗能量次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗100晶石增加10次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -864,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1003,6 +1011,29 @@
         <v>15</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="9">
+        <v>600005</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>

--- a/config/data/商品价格表.xlsx
+++ b/config/data/商品价格表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>comment</t>
   </si>
@@ -373,6 +373,30 @@
   </si>
   <si>
     <t>消耗100晶石增加10次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3000000能量币增加技能2攻击次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗3000000能量币增加技能2防御次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2攻击次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2防御次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换心情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费50晶石换心情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1034,6 +1058,75 @@
         <v>17</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="9">
+        <v>600006</v>
+      </c>
+      <c r="C9">
+        <v>3000000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="9">
+        <v>600007</v>
+      </c>
+      <c r="C10">
+        <v>3000000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="9">
+        <v>600008</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>

--- a/config/data/商品价格表.xlsx
+++ b/config/data/商品价格表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>comment</t>
   </si>
@@ -397,6 +397,18 @@
   </si>
   <si>
     <t>消费50晶石换心情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/500/1000/1500/2000/2500/3000/3500/4000/4500/5000/5500/6000/6500/7000/7500/8000/8500/9000/9500/10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块升级,可永久提升财富收益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1127,6 +1139,29 @@
         <v>23</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="9">
+        <v>700000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>

--- a/config/data/商品价格表.xlsx
+++ b/config/data/商品价格表.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>comment</t>
   </si>
@@ -368,14 +368,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗能量次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗100晶石增加10次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗3000000能量币增加技能2攻击次数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,7 +400,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地块升级,可永久提升财富收益</t>
+    <t>挑战模式满血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战模式用户第一次挑战状态的满血血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可永久提升收获产值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗能量点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗100晶石加10点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -1061,13 +1069,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1084,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1107,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1130,13 +1138,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1147,13 +1155,13 @@
         <v>700000</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
@@ -1162,6 +1170,29 @@
         <v>26</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>600009</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/config/data/商品价格表.xlsx
+++ b/config/data/商品价格表.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>comment</t>
   </si>
@@ -417,6 +417,22 @@
   </si>
   <si>
     <t>消耗100晶石加10点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战星经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1000晶石获得1000战星经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶石兑换能量币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1000晶石获得30000000能量币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1193,6 +1209,52 @@
         <v>25</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>600014</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>600015</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>

--- a/config/data/商品价格表.xlsx
+++ b/config/data/商品价格表.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>comment</t>
   </si>
@@ -432,7 +432,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>消耗1000晶石获得30000000能量币</t>
+    <t>战斗全属性强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗2000晶石全属性提升10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗1000晶石获得80000000能量币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -932,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -995,7 +1003,7 @@
         <v>600001</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1016,7 +1024,7 @@
         <v>600002</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1036,7 +1044,7 @@
         <v>600003</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1252,9 +1260,32 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
+        <v>600016</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H15">
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>
